--- a/关于冒险委托报酬图片识别.xlsx
+++ b/关于冒险委托报酬图片识别.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\MAA_bbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D40AD4-8D8C-4A42-8F06-517D93C6443B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2162C74-5279-4399-9A83-2D3AD15B35EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A61481A2-FB46-4114-9770-12F5CD2FE09D}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -334,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,16 +397,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,7 +729,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -753,7 +764,7 @@
       <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -767,7 +778,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -778,7 +789,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -792,7 +803,7 @@
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -820,7 +831,7 @@
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -834,7 +845,7 @@
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">

--- a/关于冒险委托报酬图片识别.xlsx
+++ b/关于冒险委托报酬图片识别.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\MAA_bbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2162C74-5279-4399-9A83-2D3AD15B35EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD80D15-A08C-472F-AE62-B8BE1CD8DAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A61481A2-FB46-4114-9770-12F5CD2FE09D}"/>
   </bookViews>
@@ -342,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,24 +382,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -410,6 +395,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6295B9AD-EF03-4985-804C-A4DEBEFE45DB}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -761,10 +758,10 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -778,7 +775,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -789,7 +786,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -797,13 +794,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -811,7 +808,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -825,13 +822,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -839,13 +836,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">

--- a/关于冒险委托报酬图片识别.xlsx
+++ b/关于冒险委托报酬图片识别.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\MAA_bbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD80D15-A08C-472F-AE62-B8BE1CD8DAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD83122B-7DED-4635-A7F0-7E0EB49F0023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A61481A2-FB46-4114-9770-12F5CD2FE09D}"/>
   </bookViews>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -323,26 +323,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="dashed">
-        <color rgb="FF76453B"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF76453B"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color rgb="FF76453B"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,9 +370,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -726,7 +710,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -761,7 +745,7 @@
       <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -775,7 +759,7 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -786,7 +770,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -794,13 +778,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -808,13 +792,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -822,13 +806,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -836,13 +820,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
